--- a/data/trans_orig/P13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776AA535-F1A4-4E53-A69B-1E173431B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B177F1F-E2E0-4375-A9BF-FFA7F934DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E2935E4-C372-46C5-AF65-421DE3E486ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{507A9E4F-F1B9-485A-81B2-08595FCC1128}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1186 +77,1180 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>94,41%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>4,18%</t>
@@ -1265,28 +1259,31 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>93,63%</t>
   </si>
   <si>
     <t>97,24%</t>
@@ -1295,130 +1292,133 @@
     <t>95,16%</t>
   </si>
   <si>
-    <t>96,39%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>7,28%</t>
@@ -1427,40 +1427,28 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>91,96%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
     <t>93,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D616A85-3BF0-40DF-8336-C92616C8C8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE360ECC-86B7-4036-B31E-36E9B2E0AAF5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,7 +2145,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2166,13 +2154,13 @@
         <v>15060</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -2181,13 +2169,13 @@
         <v>24335</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2190,13 @@
         <v>726214</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -2217,13 +2205,13 @@
         <v>610434</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1271</v>
@@ -2232,13 +2220,13 @@
         <v>1336647</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2282,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2306,13 +2294,13 @@
         <v>25904</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2321,13 +2309,13 @@
         <v>22319</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2336,13 +2324,13 @@
         <v>48223</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2345,13 @@
         <v>612764</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -2372,13 +2360,13 @@
         <v>667425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1227</v>
@@ -2387,13 +2375,13 @@
         <v>1280189</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2437,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2461,13 +2449,13 @@
         <v>7424</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2476,13 +2464,13 @@
         <v>20880</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2491,13 +2479,13 @@
         <v>28305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2500,13 @@
         <v>511723</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -2527,13 +2515,13 @@
         <v>494762</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -2542,13 +2530,13 @@
         <v>1006484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2616,13 +2604,13 @@
         <v>12688</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2631,13 +2619,13 @@
         <v>21374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2646,13 +2634,13 @@
         <v>34062</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2655,13 @@
         <v>374022</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -2682,13 +2670,13 @@
         <v>382612</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -2697,13 +2685,13 @@
         <v>756634</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2747,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2759,13 @@
         <v>39151</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2786,13 +2774,13 @@
         <v>72376</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2801,13 +2789,13 @@
         <v>111527</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2810,13 @@
         <v>463315</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>593</v>
@@ -2837,13 +2825,13 @@
         <v>604466</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1077</v>
@@ -2852,13 +2840,13 @@
         <v>1067781</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2914,13 @@
         <v>104411</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -2941,13 +2929,13 @@
         <v>163893</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
@@ -2956,13 +2944,13 @@
         <v>268304</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2965,13 @@
         <v>3172133</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3141</v>
@@ -2992,28 +2980,28 @@
         <v>3215305</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6255</v>
       </c>
       <c r="N23" s="7">
-        <v>6387436</v>
+        <v>6387437</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3043,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3069,7 +3057,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B873212-9482-4488-AA47-F5DCBA1F0098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE131F84-4B54-4CA6-BA4B-DB57E8BF75D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3215,13 +3203,13 @@
         <v>11355</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3233,10 +3221,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3248,10 +3236,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3254,13 @@
         <v>442791</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>413</v>
@@ -3284,10 +3272,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>848</v>
@@ -3299,10 +3287,10 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3358,13 @@
         <v>15751</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3385,13 +3373,13 @@
         <v>24632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3400,13 +3388,13 @@
         <v>40383</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3409,13 @@
         <v>671336</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -3436,13 +3424,13 @@
         <v>584688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>1200</v>
@@ -3451,13 +3439,13 @@
         <v>1256024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3501,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3525,13 +3513,13 @@
         <v>28152</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3540,13 +3528,13 @@
         <v>46802</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -3555,13 +3543,13 @@
         <v>74954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3564,13 @@
         <v>652764</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>623</v>
@@ -3591,13 +3579,13 @@
         <v>663028</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1246</v>
@@ -3606,7 +3594,7 @@
         <v>1315792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>184</v>
@@ -3668,7 +3656,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3683,10 +3671,10 @@
         <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3695,13 +3683,13 @@
         <v>52224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3710,13 +3698,13 @@
         <v>78299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3719,13 @@
         <v>588542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -3746,13 +3734,13 @@
         <v>563975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -3761,13 +3749,13 @@
         <v>1152517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3835,13 +3823,13 @@
         <v>17784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3850,13 +3838,13 @@
         <v>43399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3865,13 +3853,13 @@
         <v>61183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3874,13 @@
         <v>410615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3901,13 +3889,13 @@
         <v>404401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -3916,13 +3904,13 @@
         <v>815016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3966,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3990,13 +3978,13 @@
         <v>59823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -4005,13 +3993,13 @@
         <v>155823</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -4020,13 +4008,13 @@
         <v>215646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4029,13 @@
         <v>498849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>549</v>
@@ -4056,13 +4044,13 @@
         <v>586054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>998</v>
@@ -4071,13 +4059,13 @@
         <v>1084903</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4133,13 @@
         <v>158941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>306</v>
@@ -4178,10 +4166,10 @@
         <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4184,13 @@
         <v>3264895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>2989</v>
@@ -4211,13 +4199,13 @@
         <v>3223697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>6049</v>
@@ -4226,13 +4214,13 @@
         <v>6488592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4276,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE350E98-9C53-4143-B321-19AE1ADA28BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8092E9-45B2-41B9-82C3-96B3BA2D2B01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4327,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,13 +4422,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4449,13 +4437,13 @@
         <v>6115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4464,13 +4452,13 @@
         <v>7046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4473,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>398</v>
@@ -4500,13 +4488,13 @@
         <v>389640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>790</v>
@@ -4515,13 +4503,13 @@
         <v>808172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4577,13 @@
         <v>10962</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4604,13 +4592,13 @@
         <v>8903</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4619,13 +4607,13 @@
         <v>19865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4628,13 @@
         <v>579534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -4655,13 +4643,13 @@
         <v>553660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4670,13 +4658,13 @@
         <v>1133194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4720,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4744,13 +4732,13 @@
         <v>22935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4759,13 +4747,13 @@
         <v>18412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4774,13 +4762,13 @@
         <v>41347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4783,13 @@
         <v>645189</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -4810,13 +4798,13 @@
         <v>641242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1263</v>
@@ -4825,10 +4813,10 @@
         <v>1286431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>298</v>
@@ -4887,7 +4875,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4905,7 +4893,7 @@
         <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4914,13 +4902,13 @@
         <v>41411</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4929,13 +4917,13 @@
         <v>67910</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4938,13 @@
         <v>619549</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -4965,13 +4953,13 @@
         <v>606611</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
@@ -4980,13 +4968,13 @@
         <v>1226161</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5030,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5054,13 +5042,13 @@
         <v>19381</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5069,13 +5057,13 @@
         <v>37214</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -5084,10 +5072,10 @@
         <v>56595</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>321</v>
@@ -5105,13 +5093,13 @@
         <v>458537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -5126,7 +5114,7 @@
         <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>807</v>
@@ -5135,13 +5123,13 @@
         <v>918172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5185,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5209,13 +5197,13 @@
         <v>36873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -5224,13 +5212,13 @@
         <v>83625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -5239,13 +5227,13 @@
         <v>120498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5248,13 @@
         <v>554455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>586</v>
@@ -5275,13 +5263,13 @@
         <v>693035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>1173</v>
@@ -5290,13 +5278,13 @@
         <v>1247490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5352,13 @@
         <v>117581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5379,13 +5367,13 @@
         <v>195680</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -5394,13 +5382,13 @@
         <v>313261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5403,13 @@
         <v>3275797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -5430,13 +5418,13 @@
         <v>3343824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M23" s="7">
         <v>6279</v>
@@ -5445,13 +5433,13 @@
         <v>6619621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,7 +5495,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86617804-FCDC-45F8-B656-44C0DE07EAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D6FF1-C529-43A2-B3DB-6E4D1F551DB2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5546,7 +5534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5653,13 +5641,13 @@
         <v>1680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5668,10 +5656,10 @@
         <v>1436</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>363</v>
@@ -5683,13 +5671,13 @@
         <v>3116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5698,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5722,10 +5710,10 @@
         <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -5734,13 +5722,13 @@
         <v>729520</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5796,13 @@
         <v>17197</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5823,13 +5811,13 @@
         <v>15850</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5838,13 +5826,13 @@
         <v>33048</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5847,13 @@
         <v>411199</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5874,13 +5862,13 @@
         <v>482727</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>734</v>
@@ -5951,7 +5939,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5966,10 +5954,10 @@
         <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5996,10 +5984,10 @@
         <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6002,13 @@
         <v>537179</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
         <v>820</v>
@@ -6029,13 +6017,13 @@
         <v>565619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M11" s="7">
         <v>1349</v>
@@ -6044,13 +6032,13 @@
         <v>1102797</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6094,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6118,13 +6106,13 @@
         <v>30203</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -6133,13 +6121,13 @@
         <v>36096</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -6148,13 +6136,13 @@
         <v>66298</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6157,13 @@
         <v>692751</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>1086</v>
@@ -6184,10 +6172,10 @@
         <v>709907</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>418</v>
@@ -6261,7 +6249,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6416,7 +6404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6583,7 +6571,7 @@
         <v>178970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>458</v>
@@ -6616,10 +6604,10 @@
         <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6622,13 @@
         <v>3202508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>4893</v>
@@ -6649,13 +6637,13 @@
         <v>3526143</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>8056</v>
@@ -6664,13 +6652,13 @@
         <v>6728651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>473</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,7 +6714,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B177F1F-E2E0-4375-A9BF-FFA7F934DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0036773D-4C36-4E1A-8828-B7FC664F2053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{507A9E4F-F1B9-485A-81B2-08595FCC1128}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B18C74D6-EA5C-41F1-A1DB-D4222A179AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1185 +77,1164 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
     <t>96,75%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
     <t>2,76%</t>
   </si>
   <si>
@@ -1277,12 +1256,6 @@
     <t>3,56%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
     <t>93,63%</t>
   </si>
   <si>
@@ -1301,9 +1274,6 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
     <t>96,44%</t>
   </si>
   <si>
@@ -1328,9 +1298,6 @@
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
     <t>8,63%</t>
   </si>
   <si>
@@ -1358,15 +1325,9 @@
     <t>91,37%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
     <t>12,16%</t>
   </si>
   <si>
@@ -1394,9 +1355,6 @@
     <t>87,84%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
     <t>84,61%</t>
   </si>
   <si>
@@ -1421,9 +1379,6 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
     <t>6,44%</t>
   </si>
   <si>
@@ -1437,9 +1392,6 @@
   </si>
   <si>
     <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
   </si>
   <si>
     <t>91,96%</t>
@@ -1860,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE360ECC-86B7-4036-B31E-36E9B2E0AAF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5204C983-DBA0-4D9B-A890-39A23C5979F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2145,7 +2097,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2154,13 +2106,13 @@
         <v>15060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -2169,13 +2121,13 @@
         <v>24335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2142,13 @@
         <v>726214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -2205,13 +2157,13 @@
         <v>610434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1271</v>
@@ -2220,13 +2172,13 @@
         <v>1336647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2234,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2294,13 +2246,13 @@
         <v>25904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2309,13 +2261,13 @@
         <v>22319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2324,13 +2276,13 @@
         <v>48223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2297,13 @@
         <v>612764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -2360,13 +2312,13 @@
         <v>667425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1227</v>
@@ -2375,13 +2327,13 @@
         <v>1280189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2389,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2449,13 +2401,13 @@
         <v>7424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2464,13 +2416,13 @@
         <v>20880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2479,13 +2431,13 @@
         <v>28305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2452,13 @@
         <v>511723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -2515,13 +2467,13 @@
         <v>494762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -2530,13 +2482,13 @@
         <v>1006484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2556,13 @@
         <v>12688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2619,13 +2571,13 @@
         <v>21374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2634,13 +2586,13 @@
         <v>34062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2607,13 @@
         <v>374022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -2670,13 +2622,13 @@
         <v>382612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -2685,13 +2637,13 @@
         <v>756634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2699,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2759,13 +2711,13 @@
         <v>39151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2774,13 +2726,13 @@
         <v>72376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2789,13 +2741,13 @@
         <v>111527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2762,13 @@
         <v>463315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>593</v>
@@ -2825,13 +2777,13 @@
         <v>604466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1077</v>
@@ -2840,13 +2792,13 @@
         <v>1067781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2866,13 @@
         <v>104411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -2929,13 +2881,13 @@
         <v>163893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
@@ -2944,13 +2896,13 @@
         <v>268304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,16 +2914,16 @@
         <v>3114</v>
       </c>
       <c r="D23" s="7">
-        <v>3172133</v>
+        <v>3172132</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3141</v>
@@ -2980,13 +2932,13 @@
         <v>3215305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6255</v>
@@ -2995,13 +2947,13 @@
         <v>6387437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +2965,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3057,7 +3009,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE131F84-4B54-4CA6-BA4B-DB57E8BF75D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4F19F7-E9EA-4131-82C9-8921830EE3A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3096,7 +3048,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,13 +3155,13 @@
         <v>11355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3221,10 +3173,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3236,10 +3188,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3206,13 @@
         <v>442791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>413</v>
@@ -3272,10 +3224,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>848</v>
@@ -3287,10 +3239,10 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3310,13 @@
         <v>15751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3373,13 +3325,13 @@
         <v>24632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3388,13 +3340,13 @@
         <v>40383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3361,13 @@
         <v>671336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -3424,13 +3376,13 @@
         <v>584688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>1200</v>
@@ -3439,13 +3391,13 @@
         <v>1256024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,7 +3453,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3513,13 +3465,13 @@
         <v>28152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3528,13 +3480,13 @@
         <v>46802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -3543,13 +3495,13 @@
         <v>74954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3516,13 @@
         <v>652764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7">
         <v>623</v>
@@ -3656,7 +3608,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3671,10 +3623,10 @@
         <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3683,13 +3635,13 @@
         <v>52224</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3698,13 +3650,13 @@
         <v>78299</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3671,13 @@
         <v>588542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -3734,13 +3686,13 @@
         <v>563975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -3749,13 +3701,13 @@
         <v>1152517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3763,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3823,13 +3775,13 @@
         <v>17784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3838,13 +3790,13 @@
         <v>43399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3853,13 +3805,13 @@
         <v>61183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3826,13 @@
         <v>410615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3889,13 +3841,13 @@
         <v>404401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -3904,13 +3856,13 @@
         <v>815016</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3918,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3978,13 +3930,13 @@
         <v>59823</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -3993,13 +3945,13 @@
         <v>155823</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -4008,13 +3960,13 @@
         <v>215646</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +3981,13 @@
         <v>498849</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>549</v>
@@ -4044,13 +3996,13 @@
         <v>586054</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>998</v>
@@ -4059,13 +4011,13 @@
         <v>1084903</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4085,13 @@
         <v>158941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>306</v>
@@ -4148,13 +4100,13 @@
         <v>331560</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>452</v>
@@ -4163,13 +4115,13 @@
         <v>490501</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4136,13 @@
         <v>3264895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>2989</v>
@@ -4220,7 +4172,7 @@
         <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4228,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4298,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8092E9-45B2-41B9-82C3-96B3BA2D2B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A9D80-886D-428F-B0DD-D8AC758BECF0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,7 +4380,7 @@
         <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4437,13 +4389,13 @@
         <v>6115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4452,13 +4404,13 @@
         <v>7046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4425,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>398</v>
@@ -4488,13 +4440,13 @@
         <v>389640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>790</v>
@@ -4503,13 +4455,13 @@
         <v>808172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4529,13 @@
         <v>10962</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4592,13 +4544,13 @@
         <v>8903</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4607,13 +4559,13 @@
         <v>19865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4580,13 @@
         <v>579534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -4643,13 +4595,13 @@
         <v>553660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4658,13 +4610,13 @@
         <v>1133194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4672,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4732,13 +4684,13 @@
         <v>22935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4747,13 +4699,13 @@
         <v>18412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4762,13 +4714,13 @@
         <v>41347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4735,13 @@
         <v>645189</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -4798,13 +4750,13 @@
         <v>641242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1263</v>
@@ -4813,7 +4765,7 @@
         <v>1286431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>297</v>
@@ -4875,7 +4827,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4893,7 +4845,7 @@
         <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4902,13 +4854,13 @@
         <v>41411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4917,13 +4869,13 @@
         <v>67910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4890,13 @@
         <v>619549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -4953,13 +4905,13 @@
         <v>606611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
@@ -4968,13 +4920,13 @@
         <v>1226161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +4982,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5042,13 +4994,13 @@
         <v>19381</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5057,13 +5009,13 @@
         <v>37214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -5072,13 +5024,13 @@
         <v>56595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5045,13 @@
         <v>458537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -5108,13 +5060,13 @@
         <v>459635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>807</v>
@@ -5123,13 +5075,13 @@
         <v>918172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,7 +5137,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5197,13 +5149,13 @@
         <v>36873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -5212,13 +5164,13 @@
         <v>83625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -5227,13 +5179,13 @@
         <v>120498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5200,13 @@
         <v>554455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>586</v>
@@ -5263,13 +5215,13 @@
         <v>693035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>1173</v>
@@ -5278,13 +5230,13 @@
         <v>1247490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5304,13 @@
         <v>117581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5367,13 +5319,13 @@
         <v>195680</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -5382,13 +5334,13 @@
         <v>313261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5355,13 @@
         <v>3275797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -5418,13 +5370,13 @@
         <v>3343824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>358</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M23" s="7">
         <v>6279</v>
@@ -5433,13 +5385,13 @@
         <v>6619621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,7 +5447,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5517,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D6FF1-C529-43A2-B3DB-6E4D1F551DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D148319-F037-4591-8A45-C87B16ED2BC0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,7 +5486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5641,13 +5593,13 @@
         <v>1680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5656,13 +5608,13 @@
         <v>1436</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5671,13 +5623,13 @@
         <v>3116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5644,13 @@
         <v>375999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5707,13 +5659,13 @@
         <v>353521</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -5722,13 +5674,13 @@
         <v>729520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5748,13 @@
         <v>17197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5811,13 +5763,13 @@
         <v>15850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5826,13 +5778,13 @@
         <v>33048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5799,13 @@
         <v>411199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5862,13 +5814,13 @@
         <v>482727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>734</v>
@@ -5877,13 +5829,13 @@
         <v>893925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,7 +5891,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5951,13 +5903,13 @@
         <v>20073</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5966,13 +5918,13 @@
         <v>17011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -5981,13 +5933,13 @@
         <v>37085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5954,13 @@
         <v>537179</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>820</v>
@@ -6017,13 +5969,13 @@
         <v>565619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>1349</v>
@@ -6032,13 +5984,13 @@
         <v>1102797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6046,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6058,13 @@
         <v>30203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>404</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -6121,13 +6073,13 @@
         <v>36096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -6136,13 +6088,13 @@
         <v>66298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6109,13 @@
         <v>692751</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>1086</v>
@@ -6172,13 +6124,13 @@
         <v>709907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>1725</v>
@@ -6187,13 +6139,13 @@
         <v>1402659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6261,13 +6213,13 @@
         <v>39616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -6276,13 +6228,13 @@
         <v>48836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -6291,13 +6243,13 @@
         <v>88452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6264,13 @@
         <v>559464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>923</v>
@@ -6327,13 +6279,13 @@
         <v>547563</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -6342,13 +6294,13 @@
         <v>1107027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6356,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6416,13 +6368,13 @@
         <v>70200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>441</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -6431,13 +6383,13 @@
         <v>157633</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -6446,13 +6398,13 @@
         <v>227833</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6419,13 @@
         <v>625918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>1413</v>
@@ -6482,13 +6434,13 @@
         <v>866805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>2329</v>
@@ -6497,13 +6449,13 @@
         <v>1492723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6523,13 @@
         <v>178970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>462</v>
@@ -6586,13 +6538,13 @@
         <v>276861</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>671</v>
@@ -6601,13 +6553,13 @@
         <v>455831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6574,13 @@
         <v>3202508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>4893</v>
@@ -6637,13 +6589,13 @@
         <v>3526143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>8056</v>
@@ -6652,13 +6604,13 @@
         <v>6728651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6666,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
